--- a/biology/Zoologie/Forcipomyia/Forcipomyia.xlsx
+++ b/biology/Zoologie/Forcipomyia/Forcipomyia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forcipomyia est un genre d'insectes diptères de la sous-famille des Forcipomyiinae (famille des Ceratopogonidae).
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Forcipomyia a été créé en 1818 par l'entomologiste allemand Johann Wilhelm Meigen (1764-1845).
 </t>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces du genre Forcipomyia sont hématophages, tandis que d'autres sont des ectoparasites d'insectes plus gros. D'autres encore sont des pollinisateurs, notamment impliqués dans la pollinisation du cacaoyer (Theobroma cacao)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces du genre Forcipomyia sont hématophages, tandis que d'autres sont des ectoparasites d'insectes plus gros. D'autres encore sont des pollinisateurs, notamment impliqués dans la pollinisation du cacaoyer (Theobroma cacao).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forcipomyia est le genre le plus diversifié des Ceratopogonidae, avec 1 125 espèces connues, réparties dans les 36 sous-genres suivants[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forcipomyia est le genre le plus diversifié des Ceratopogonidae, avec 1 125 espèces connues, réparties dans les 36 sous-genres suivants :
 Forcipomyia (Atopomyia)
 Forcipomyia (Baliohelea)
 Forcipomyia (Bassoforcipomyia)
